--- a/Additional Helping Files/marks-106.xlsx
+++ b/Additional Helping Files/marks-106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TechnicalHouse\Additional Helping Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074BDD45-249E-4887-AC71-F1991B9B97AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AA641-8161-4264-B6FD-0E14C552CE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -516,90 +516,120 @@
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
       <c r="M2" s="1">
         <f>SUM(B2:L2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M10" si="0">SUM(B3:L3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
       <c r="M7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
       <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
       <c r="M9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
       <c r="M10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
       <c r="M11" s="1">
         <f>SUM(B11:L11)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Additional Helping Files/marks-106.xlsx
+++ b/Additional Helping Files/marks-106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TechnicalHouse\Additional Helping Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AA641-8161-4264-B6FD-0E14C552CE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5096009-4117-4071-9A89-F8D19D17A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -519,9 +519,12 @@
       <c r="B2" s="1">
         <v>5</v>
       </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
       <c r="M2" s="1">
         <f>SUM(B2:L2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -531,9 +534,12 @@
       <c r="B3" s="1">
         <v>5</v>
       </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M10" si="0">SUM(B3:L3)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -543,9 +549,12 @@
       <c r="B4" s="1">
         <v>5</v>
       </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -555,9 +564,12 @@
       <c r="B5" s="1">
         <v>5</v>
       </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -567,9 +579,12 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -579,9 +594,12 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
       <c r="M7" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -591,9 +609,12 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
+      <c r="C8" s="1">
+        <v>3.5</v>
+      </c>
       <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -603,9 +624,12 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
       <c r="M9" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -615,9 +639,12 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
       <c r="M10" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -627,9 +654,12 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
+      <c r="C11" s="1">
+        <v>3.5</v>
+      </c>
       <c r="M11" s="1">
         <f>SUM(B11:L11)</f>
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/Additional Helping Files/marks-106.xlsx
+++ b/Additional Helping Files/marks-106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TechnicalHouse\Additional Helping Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5096009-4117-4071-9A89-F8D19D17A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A39D9-ADD1-4EE4-BC8B-20503B65D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>نام دانشجو</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>پدرام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مثبت یا منفی ها </t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -471,7 +486,7 @@
     <col min="10" max="16384" width="18" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,143 +526,236 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(B2:L2)</f>
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="M3" s="1">
+        <f>SUM(B3:L3)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SUM(B4:L4)</f>
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <f>SUM(B5:L5)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUM(B6:L6)</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M10" si="0">SUM(B3:L3)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(B7:L7)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUM(B8:L8)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUM(B9:L9)</f>
+        <v>26.5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
+      <c r="D10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
       <c r="M10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(B10:L10)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -657,12 +765,24 @@
       <c r="C11" s="1">
         <v>3.5</v>
       </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
       <c r="M11" s="1">
         <f>SUM(B11:L11)</f>
-        <v>8.5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
+    <sortCondition descending="1" ref="M2:M11"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Helping Files/marks-106.xlsx
+++ b/Additional Helping Files/marks-106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TechnicalHouse\Additional Helping Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A39D9-ADD1-4EE4-BC8B-20503B65D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99AB8C5-4577-4325-A105-619C9E7CA1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>نام دانشجو</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>پدرام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مثبت یا منفی ها </t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
@@ -130,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,7 +462,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -526,9 +514,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -549,12 +535,18 @@
       <c r="F2" s="1">
         <v>10</v>
       </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>20</v>
+      </c>
       <c r="M2" s="1">
         <f>SUM(B2:L2)</f>
-        <v>39</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -576,14 +568,23 @@
       <c r="F3" s="1">
         <v>8.5</v>
       </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
       <c r="M3" s="1">
         <f>SUM(B3:L3)</f>
-        <v>36.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -592,25 +593,31 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
-        <v>7.5</v>
-      </c>
       <c r="F4" s="1">
-        <v>8.5</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20</v>
       </c>
       <c r="M4" s="1">
         <f>SUM(B4:L4)</f>
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -619,17 +626,26 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F5" s="1">
-        <v>9</v>
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>19</v>
       </c>
       <c r="M5" s="1">
         <f>SUM(B5:L5)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -651,9 +667,18 @@
       <c r="F6" s="1">
         <v>7.5</v>
       </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>19</v>
+      </c>
       <c r="M6" s="1">
         <f>SUM(B6:L6)</f>
-        <v>32.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -675,9 +700,18 @@
       <c r="F7" s="1">
         <v>6.5</v>
       </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.5</v>
+      </c>
       <c r="M7" s="1">
         <f>SUM(B7:L7)</f>
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -699,9 +733,18 @@
       <c r="F8" s="1">
         <v>6</v>
       </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18.5</v>
+      </c>
       <c r="M8" s="1">
         <f>SUM(B8:L8)</f>
-        <v>26.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,12 +766,18 @@
       <c r="F9" s="1">
         <v>7</v>
       </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.5</v>
+      </c>
       <c r="M9" s="1">
         <f>SUM(B9:L9)</f>
-        <v>26.5</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -750,9 +799,18 @@
       <c r="F10" s="1">
         <v>8</v>
       </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.5</v>
+      </c>
       <c r="M10" s="1">
         <f>SUM(B10:L10)</f>
-        <v>26</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -774,9 +832,18 @@
       <c r="F11" s="1">
         <v>3</v>
       </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17</v>
+      </c>
       <c r="M11" s="1">
         <f>SUM(B11:L11)</f>
-        <v>19</v>
+        <v>41.5</v>
       </c>
     </row>
   </sheetData>
